--- a/main/glucides.xlsx
+++ b/main/glucides.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.930000000000001</v>
+        <v>26.73</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.98</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>226.35</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.23</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="7">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>26.85</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.08</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>226.34</v>
+        <v>38.52</v>
       </c>
     </row>
     <row r="11">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>18.82</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="13">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13.14</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="15">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14.95</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>21.58</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.720000000000001</v>
+        <v>10.77</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6.71</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.42</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.62</v>
+        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2.12</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6.77</v>
+        <v>24.74</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.57</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2.59</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="27">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>11.48</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>30.7</v>
+        <v>31.55</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.02</v>
+        <v>5.61</v>
       </c>
     </row>
     <row r="32">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>25.52</v>
+        <v>28.87</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6.44</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="36">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>8.77</v>
+        <v>11.01</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>15.21</v>
+        <v>20.45</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.37</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2.08</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>17.12</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="42">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2.53</v>
+        <v>17.19</v>
       </c>
     </row>
     <row r="43">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>15.54</v>
+        <v>21.67</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.23</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>8.280000000000001</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="46">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>17.12</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>12.2</v>
+        <v>25.39</v>
       </c>
     </row>
     <row r="49">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5.73</v>
+        <v>20.72</v>
       </c>
     </row>
     <row r="50">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13.79</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="51">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4.109999999999999</v>
+        <v>14.47</v>
       </c>
     </row>
     <row r="52">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="53">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10.05</v>
+        <v>26.83</v>
       </c>
     </row>
     <row r="54">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="55">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4.15</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="56">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>11.87</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>8.23</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9.57</v>
+        <v>11.81</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>4.19</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="61">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14.02</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="62">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17.46</v>
+        <v>141.98</v>
       </c>
     </row>
     <row r="63">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.19</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="64">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2.26</v>
+        <v>15.67</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8.049999999999999</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8.84</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>13.1</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="69">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3.67</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3.44</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>11.71</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>25.01</v>
+        <v>36.99</v>
       </c>
     </row>
     <row r="73">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1.42</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7.4</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="78">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>15.28</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4.850000000000001</v>
+        <v>18.95</v>
       </c>
     </row>
     <row r="81">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1.24</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>17.46</v>
+        <v>141.98</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>29.99</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.05</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="86">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>25.11</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="88">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>18.21</v>
+        <v>28.28</v>
       </c>
     </row>
     <row r="90">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>226.35</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="91">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5.59</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="93">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>22.89</v>
+        <v>25.88</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>20.32</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>11.58</v>
+        <v>28.42</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.28</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>5.44</v>
+        <v>25.61</v>
       </c>
     </row>
     <row r="98">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>29.36</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="99">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>11.95</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="100">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="101">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6.51</v>
+        <v>12.29</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2.01</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>17.28</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="104">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="106">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>5.83</v>
+        <v>34.14</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>12.12</v>
+        <v>0.6699999999999999</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>5.140000000000001</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2.68</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="111">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>13.13</v>
+        <v>15.37</v>
       </c>
     </row>
     <row r="112">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7.91</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>23.39</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>18.21</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="116">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>16.08</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="117">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.08</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>11.78</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="119">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.08</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="121">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3.21</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="122">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.53</v>
+        <v>5.53</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>9.84</v>
+        <v>19.86</v>
       </c>
     </row>
     <row r="124">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5.91</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.04</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="126">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>11.26</v>
+        <v>23.12</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4.52</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>16.48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1.48</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="131">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.22</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="132">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>231.54</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="134">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="136">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>228.98</v>
+        <v>229.41</v>
       </c>
     </row>
     <row r="137">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1.42</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="139">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>6.7</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="140">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8.27</v>
+        <v>25.89</v>
       </c>
     </row>
     <row r="141">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>22.73</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="142">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>12.71</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="143">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1.45</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.3</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>22.46</v>
+        <v>109.57</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>226.35</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>4.62</v>
+        <v>22.67</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2.28</v>
+        <v>15.01</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>2.99</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.44</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1.93</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2.01</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1.97</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>8.720000000000001</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>9.600000000000001</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>9.600000000000001</v>
+        <v>25.66</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>37.04</v>
+        <v>49.08</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>3.62</v>
+        <v>5.140000000000001</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>5.26</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>226.35</v>
+        <v>68.48</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>14.4</v>
+        <v>26.44</v>
       </c>
     </row>
     <row r="163">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>8.06</v>
+        <v>28.47</v>
       </c>
     </row>
     <row r="164">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>8.06</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>6.44</v>
+        <v>12.62</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>4.16</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="167">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1.31</v>
+        <v>3.81</v>
       </c>
     </row>
     <row r="168">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>9.390000000000001</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="170">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1.37</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>7.62</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1.92</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.62</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.77</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1.37</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>2.55</v>
+        <v>10.31</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>7.1</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>7.99</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>12.35</v>
+        <v>12.57</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>25.36</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="182">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>6.42</v>
+        <v>8.049999999999999</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>12.69</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>6.53</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>185.3</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>8.010000000000002</v>
+        <v>8.59</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>10.62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>8.65</v>
+        <v>24.14</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>13.84</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.19</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="191">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.19</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>4.44</v>
+        <v>18.94</v>
       </c>
     </row>
     <row r="194">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1.31</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>2.77</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6.779999999999999</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>23.57</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="198">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6.56</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="199">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>21.43</v>
+        <v>26.03</v>
       </c>
     </row>
     <row r="201">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>13.78</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="202">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>9.41</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>10.47</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="204">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>7.23</v>
+        <v>17.9</v>
       </c>
     </row>
     <row r="205">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>7.95</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="207">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6.529999999999999</v>
+        <v>6.699999999999999</v>
       </c>
     </row>
     <row r="209">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>11.07</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="210">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>18.21</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="211">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>6.94</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="212">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.44</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="215">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>4.8</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>5.6</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>3.02</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>8.57</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>7.73</v>
+        <v>30.49</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>4.96</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="222">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>11.76</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="224">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>7.66</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1.37</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>2.45</v>
+        <v>7.710000000000001</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>10.47</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0.19</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>2.01</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1.64</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1.42</v>
+        <v>10.28</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>2.22</v>
+        <v>16.95</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.19</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>13.86</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="238">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>6.88</v>
+        <v>21.54</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>11.07</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>9.140000000000001</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>2.57</v>
+        <v>7.08</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>7.62</v>
+        <v>12.19</v>
       </c>
     </row>
     <row r="244">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0.47</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2.49</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>4.8</v>
+        <v>10.82</v>
       </c>
     </row>
     <row r="248">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>20.8</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>20.8</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="251">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>1.09</v>
+        <v>8.869999999999999</v>
       </c>
     </row>
     <row r="252">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>2.37</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>5.29</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="254">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>28.86</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="256">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>247.92</v>
+        <v>34.25</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7.27</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>11.37</v>
+        <v>25.68</v>
       </c>
     </row>
     <row r="259">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0.47</v>
+        <v>14.66</v>
       </c>
     </row>
     <row r="260">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>11.95</v>
+        <v>38.17</v>
       </c>
     </row>
     <row r="261">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>14.43</v>
+        <v>15.43</v>
       </c>
     </row>
     <row r="262">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>88.82000000000001</v>
+        <v>74.09</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>45.02</v>
+        <v>77.05</v>
       </c>
     </row>
     <row r="264">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>8.369999999999999</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="265">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>9.049999999999999</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="268">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>1.97</v>
+        <v>50.62</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>19.29</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="270">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>6.050000000000001</v>
+        <v>9.040000000000001</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>10.78</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2.97</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>14.52</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>19.45</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>6.49</v>
+        <v>9.040000000000001</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>23.73</v>
+        <v>24.35</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>12.62</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="279">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>32.27</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>10.48</v>
+        <v>18.1</v>
       </c>
     </row>
     <row r="281">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>11.57</v>
+        <v>13.81</v>
       </c>
     </row>
     <row r="282">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>452.69</v>
+        <v>136.99</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>10.78</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>7.32</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>17.31</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>15.79</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>40.68</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>15.46</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>13.89</v>
+        <v>16.98</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>13.4</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>22.51</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>9.239999999999998</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="293">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>5.88</v>
+        <v>20.43</v>
       </c>
     </row>
     <row r="295">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>6.74</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="296">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>9.239999999999998</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="298">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0.92</v>
+        <v>41.55</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>12.59</v>
+        <v>82.08</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4.96</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>14.09</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>10.27</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="305">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1.47</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="306">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>18.98</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="307">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>8.609999999999999</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="308">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>34.64</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="309">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>9.66</v>
+        <v>9.040000000000001</v>
       </c>
     </row>
     <row r="310">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>9.600000000000001</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>7.2</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>4.25</v>
+        <v>5.640000000000001</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0.1</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>9.859999999999999</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>9.149999999999999</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>17.87</v>
+        <v>8.969999999999999</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>5.52</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>45.8</v>
+        <v>70.54000000000001</v>
       </c>
     </row>
     <row r="319">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>3.22</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>4.29</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>3.69</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2.01</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="323">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>5.48</v>
+        <v>22.33</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>10.91</v>
+        <v>13.15</v>
       </c>
     </row>
     <row r="327">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>5.52</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>17.18</v>
+        <v>14.46</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1.37</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>25.9</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>12.61</v>
+        <v>12.01</v>
       </c>
     </row>
     <row r="333">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>19.52</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>19.73</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>5.66</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>12.05</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0.6000000000000001</v>
+        <v>10.05</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>14.25</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1.5</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="342">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>21.89</v>
+        <v>12.38</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1.69</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>3.95</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>4.850000000000001</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="347">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>28.39</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="349">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>6.11</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="350">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="351">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>9.09</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="352">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>38.84999999999999</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2.22</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2.97</v>
+        <v>14.27</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>36.58</v>
+        <v>17.45</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>9.239999999999998</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>16.78</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="359">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0.8700000000000001</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="361">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>5.11</v>
+        <v>27.82</v>
       </c>
     </row>
     <row r="363">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>13.24</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="364">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1.42</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="366">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>21.13</v>
+        <v>16.24</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="368">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1.45</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>3.06</v>
+        <v>24.61</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>14.09</v>
+        <v>23.91</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>14.08</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>6.3</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>6.12</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2.01</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>14.92</v>
+        <v>17.91</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>5.03</v>
+        <v>9.040000000000001</v>
       </c>
     </row>
     <row r="378">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>3.66</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>27.61</v>
+        <v>29.11</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1.6</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="382">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>9.58</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="385">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>31.92</v>
+        <v>35.83</v>
       </c>
     </row>
     <row r="387">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>9.98</v>
+        <v>15.39</v>
       </c>
     </row>
     <row r="388">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>17.09</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="389">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>7.550000000000001</v>
+        <v>16.82</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>10.57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>12.58</v>
+        <v>14.87</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>26.94</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="393">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>8.92</v>
+        <v>13.91</v>
       </c>
     </row>
     <row r="394">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>4.79</v>
+        <v>19.62</v>
       </c>
     </row>
   </sheetData>
